--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3869.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3869.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.76611357762198</v>
+        <v>4.595741748809814</v>
       </c>
       <c r="B1">
-        <v>3.042746480057861</v>
+        <v>3.85477614402771</v>
       </c>
       <c r="C1">
-        <v>3.301929414160278</v>
+        <v>3.381373643875122</v>
       </c>
       <c r="D1">
-        <v>3.787642654083844</v>
+        <v>4.175801753997803</v>
       </c>
       <c r="E1">
-        <v>0.9088537289751412</v>
+        <v>4.927867412567139</v>
       </c>
     </row>
   </sheetData>
